--- a/RR/excel/GiveAwardFlow/GiveAwardFlow.xlsx
+++ b/RR/excel/GiveAwardFlow/GiveAwardFlow.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\GiveAwardFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D684893-C344-49FB-AA47-9F2426F0F26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85E60C2-8AD1-40D8-A5F0-805ACED6881E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C900" sheetId="1" r:id="rId1"/>
     <sheet name="C1151" sheetId="2" r:id="rId2"/>
+    <sheet name="C1227" sheetId="3" r:id="rId3"/>
+    <sheet name="C1083" sheetId="4" r:id="rId4"/>
+    <sheet name="C841" sheetId="5" r:id="rId5"/>
+    <sheet name="C1218" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -73,8 +77,104 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{20439036-BFCA-4FB3-8FAB-CCA7B6D79B9F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{AA87B8AF-2C78-40F9-8D7E-9D9E3A1F35E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{10993E66-DD1B-4907-BB6E-FF6637BE5B56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{843A34BB-C234-463B-BA80-1C75ED95ECD5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="118">
   <si>
     <t>Mail</t>
   </si>
@@ -341,6 +441,93 @@
   </si>
   <si>
     <t>Add an amount.</t>
+  </si>
+  <si>
+    <t>Budget Point showing below budget</t>
+  </si>
+  <si>
+    <t>manager1.ac@yopmail.com</t>
+  </si>
+  <si>
+    <t>Advantage!0198</t>
+  </si>
+  <si>
+    <t>QA - Test</t>
+  </si>
+  <si>
+    <t>employee6.ac@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee7.ac@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee8.ac@yopmail.com</t>
+  </si>
+  <si>
+    <t>Customer Focus</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Thank you for your Effort1</t>
+  </si>
+  <si>
+    <t>employee5.ac@yopmail.com</t>
+  </si>
+  <si>
+    <t>Nicely Done 1</t>
+  </si>
+  <si>
+    <t>Trst</t>
+  </si>
+  <si>
+    <t>manager1.tf@yopmail.com</t>
+  </si>
+  <si>
+    <t>Advantage!1084</t>
+  </si>
+  <si>
+    <t>employee1.tf@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee2.tf@yopmail.com</t>
+  </si>
+  <si>
+    <t>TechnipFMC</t>
+  </si>
+  <si>
+    <t>manager.ac2kotak@yopmail.com</t>
+  </si>
+  <si>
+    <t>Kotak!01</t>
+  </si>
+  <si>
+    <t>employee.ac6@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee.ac8@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee.ac9@yopmail.com</t>
+  </si>
+  <si>
+    <t>manager.ac3@yopmail.com</t>
+  </si>
+  <si>
+    <t>department1.airindia@yopmail.com</t>
+  </si>
+  <si>
+    <t>Advantage!1218</t>
+  </si>
+  <si>
+    <t>emp2.airindia@yopmail.com</t>
+  </si>
+  <si>
+    <t>emp3.airindia@yopmail.com</t>
+  </si>
+  <si>
+    <t>emp4.airindia@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -803,13 +990,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" style="14" customWidth="1"/>
     <col min="4" max="5" width="30.28515625" style="14" bestFit="1" customWidth="1"/>
@@ -961,9 +1148,7 @@
       <c r="B33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>70</v>
-      </c>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -981,6 +1166,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="39" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>25</v>
@@ -1130,15 +1323,9 @@
       <c r="B61" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="12">
-        <v>2</v>
-      </c>
-      <c r="D61" s="12">
-        <v>3</v>
-      </c>
-      <c r="E61" s="12">
-        <v>4</v>
-      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="69" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
@@ -1948,4 +2135,2416 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71E3B2C-723C-421E-B3B0-294391C11A24}">
+  <dimension ref="A1:I127"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="14" customWidth="1"/>
+    <col min="4" max="5" width="30.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="C22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="21"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12">
+        <v>51</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="12">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="12">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12">
+        <v>5</v>
+      </c>
+      <c r="D52" s="12">
+        <v>4</v>
+      </c>
+      <c r="E52" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="18"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="12">
+        <v>2</v>
+      </c>
+      <c r="C59" s="12"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="12">
+        <v>3</v>
+      </c>
+      <c r="C60" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="69" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="12"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C109" r:id="rId1" display="manageractest2@yopmail.com" xr:uid="{3F1C7FB2-DF8C-469B-AC94-257E91AF67AD}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{0F84ABB7-668B-4ACC-973D-DF2099FF5DE9}"/>
+    <hyperlink ref="C23" r:id="rId3" xr:uid="{B5968DC2-A5C0-4A57-BDC2-CA05BC28E9A7}"/>
+    <hyperlink ref="D23" r:id="rId4" xr:uid="{3F24C245-B5EB-40CC-8C98-4EDC3BD664F3}"/>
+    <hyperlink ref="E23" r:id="rId5" xr:uid="{94987254-C296-49F1-90C4-BB2AFE4B3243}"/>
+    <hyperlink ref="C87" r:id="rId6" xr:uid="{6633ADAA-AA7D-410B-A128-B04011A97E4D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F542AE-46FF-4EE3-A79A-3C89CC0ACE00}">
+  <dimension ref="A1:I127"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="14" customWidth="1"/>
+    <col min="4" max="5" width="30.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I1" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="C22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="21"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12">
+        <v>51</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12">
+        <v>0</v>
+      </c>
+      <c r="D51" s="12">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12">
+        <v>5</v>
+      </c>
+      <c r="D52" s="12">
+        <v>4</v>
+      </c>
+      <c r="E52" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="18"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="69" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="16"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="12"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C109" r:id="rId1" display="manageractest2@yopmail.com" xr:uid="{3EF0A39A-0DA9-4ABD-976F-9FC16B9FA209}"/>
+    <hyperlink ref="D23" r:id="rId2" xr:uid="{02B57FF2-8C06-440E-940D-F329DB6C4833}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E466083C-E8E8-4934-AE11-774C0248B196}">
+  <dimension ref="A1:I127"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="14" customWidth="1"/>
+    <col min="4" max="5" width="30.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I1" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="C22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="21"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12">
+        <v>51</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="12">
+        <v>0</v>
+      </c>
+      <c r="D51" s="12">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="12">
+        <v>15001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12">
+        <v>5</v>
+      </c>
+      <c r="D52" s="12">
+        <v>4</v>
+      </c>
+      <c r="E52" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="18"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="69" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="12"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C109" r:id="rId1" display="manageractest2@yopmail.com" xr:uid="{182456AE-5543-4779-8751-AC35017D7C8C}"/>
+    <hyperlink ref="D23" r:id="rId2" xr:uid="{9858EC11-C9DA-462A-B8E8-73924813A9E8}"/>
+    <hyperlink ref="E23" r:id="rId3" xr:uid="{DA672C5A-092A-49B4-8FA8-E2D5FF6433C0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6C136A-63FF-4FDD-8168-44A1A4C74012}">
+  <dimension ref="A1:I127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="14" customWidth="1"/>
+    <col min="4" max="5" width="30.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I1" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="C22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="21"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="12">
+        <v>1</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12">
+        <v>0</v>
+      </c>
+      <c r="D51" s="12">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="12">
+        <v>15001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12">
+        <v>5</v>
+      </c>
+      <c r="D52" s="12">
+        <v>4</v>
+      </c>
+      <c r="E52" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="18"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="69" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="12"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C109" r:id="rId1" display="manageractest2@yopmail.com" xr:uid="{4EEAA23A-38EC-4746-98C6-518D12531D8C}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{41571384-EAEE-49F2-9550-300CCC7F1BED}"/>
+    <hyperlink ref="C23" r:id="rId3" xr:uid="{9A9FA9DB-ED63-4985-90B6-B216E4F8E08E}"/>
+    <hyperlink ref="D23" r:id="rId4" xr:uid="{D4AA1C22-123A-4AC1-AE00-D26A526A4A18}"/>
+    <hyperlink ref="E23" r:id="rId5" xr:uid="{4A7AACDE-99E0-4E77-8F1C-67B20BF5867D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId6"/>
+</worksheet>
 </file>